--- a/KNES381/athlete_performance-jump-speed-RawDataFile.xlsx
+++ b/KNES381/athlete_performance-jump-speed-RawDataFile.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/scott_gow_ucalgary_ca/Documents/2024-25/KNES 381/KNES381/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{607214AD-727C-44AB-BBB2-193C28AD1D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4C13191-5EBC-4541-9ED0-04B6C4777746}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{607214AD-727C-44AB-BBB2-193C28AD1D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDABDB3C-F940-4214-9B20-E6D1E15C5CDE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Ranges" sheetId="2" r:id="rId2"/>
     <sheet name="Pivot Table" sheetId="3" r:id="rId3"/>
+    <sheet name="Pivot Table 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Slicer" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Heart_rate">Ranges!$B$11</definedName>
     <definedName name="Injury_Risk_Threshold">Ranges!$B$2</definedName>
     <definedName name="Recovery_hours_Minimum">Ranges!$B$3</definedName>
+    <definedName name="Slicer_Age">#N/A</definedName>
+    <definedName name="Slicer_Training_Years">#N/A</definedName>
     <definedName name="Stroke_Volume">Ranges!$B$12</definedName>
     <definedName name="TrainingLevels">Ranges!$A$6:$A$8</definedName>
     <definedName name="VO2max__ml_kg_min">#REF!</definedName>
@@ -29,9 +33,18 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -48,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>Athlete_ID</t>
   </si>
@@ -167,6 +180,66 @@
   <si>
     <t>Training Hours/Week</t>
   </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>30-35</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>40-45</t>
+  </si>
+  <si>
+    <t>45-50</t>
+  </si>
+  <si>
+    <t>50-55</t>
+  </si>
+  <si>
+    <t>55-60</t>
+  </si>
+  <si>
+    <t>Count of Athlete_ID</t>
+  </si>
+  <si>
+    <t>Total Count of Athlete_ID</t>
+  </si>
+  <si>
+    <t>Total Average of Average Heart Rate at Training Load (bpm)</t>
+  </si>
+  <si>
+    <t>Total Average of Power Output (W)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Total Sum of Power Efficiency</t>
+  </si>
+  <si>
+    <t>Sum of Power Efficiency</t>
+  </si>
+  <si>
+    <t>Injury Risk Category</t>
+  </si>
+  <si>
+    <t>Recovery Alert</t>
+  </si>
+  <si>
+    <t>Workload Alert</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>Average of Fatigue Level (%)</t>
+  </si>
+  <si>
+    <t>Average of Injury Risk (%)</t>
+  </si>
 </sst>
 </file>
 
@@ -222,25 +295,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="44">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF7574F"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -268,6 +378,149 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7574F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7574F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF7574F"/>
         </patternFill>
       </fill>
@@ -282,7 +535,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -294,7 +554,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7574F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -323,20 +620,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -966,6 +1249,736 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[athlete_performance-jump-speed-RawDataFile.xlsx]Slicer!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Slicer!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of VO2max (ml/kg/min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Slicer!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Advanced</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beginner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Intermediate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Slicer!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.644135428465837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.206076792517422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.348728894777366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3F7-4978-ACAC-72A5A6CEDC06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Slicer!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Power Output (W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Slicer!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Advanced</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beginner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Intermediate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Slicer!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>259.43740553388994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222.15946031685408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>244.42583850010718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3F7-4978-ACAC-72A5A6CEDC06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Slicer!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Injury Risk (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Slicer!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Advanced</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beginner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Intermediate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Slicer!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.884503656446242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1396952682905095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.95453951152923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D3F7-4978-ACAC-72A5A6CEDC06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Slicer!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Fatigue Level (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Slicer!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Advanced</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beginner</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Intermediate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Slicer!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47.832630895240627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.682177939661997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.460330829474124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D3F7-4978-ACAC-72A5A6CEDC06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="264318224"/>
+        <c:axId val="425521936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="264318224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425521936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="425521936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264318224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1006,7 +2019,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1550,20 +3106,264 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Age">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCCF978-0033-BABD-C597-BAFEBEB7C0F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Age"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8161338" y="365125"/>
+              <a:ext cx="1833562" cy="2503488"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Training Years">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BA5302-D978-4953-4CC0-38C6D9715403}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Training Years"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10191750" y="354013"/>
+              <a:ext cx="1833563" cy="2501900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>555626</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>18256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C3BA57-6C22-C726-619C-29E3E7AE1458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Scott Gow" refreshedDate="45734.508878819448" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="100" xr:uid="{5D473764-5AAB-4FD6-B89A-0AC4217FF090}">
   <cacheSource type="worksheet">
     <worksheetSource name="AthleteData"/>
   </cacheSource>
-  <cacheFields count="13">
+  <cacheFields count="14">
     <cacheField name="Athlete_ID" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100"/>
     </cacheField>
     <cacheField name="Age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="44"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="44" count="27">
+        <n v="24"/>
+        <n v="37"/>
+        <n v="32"/>
+        <n v="28"/>
+        <n v="25"/>
+        <n v="38"/>
+        <n v="43"/>
+        <n v="36"/>
+        <n v="40"/>
+        <n v="41"/>
+        <n v="21"/>
+        <n v="20"/>
+        <n v="39"/>
+        <n v="19"/>
+        <n v="29"/>
+        <n v="23"/>
+        <n v="18"/>
+        <n v="42"/>
+        <n v="34"/>
+        <n v="44"/>
+        <n v="27"/>
+        <n v="33"/>
+        <n v="22"/>
+        <n v="26"/>
+        <n v="35"/>
+        <n v="31"/>
+        <n v="30"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Training Years" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="19"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="19" count="18">
+        <n v="13"/>
+        <n v="9"/>
+        <n v="15"/>
+        <n v="1"/>
+        <n v="7"/>
+        <n v="12"/>
+        <n v="8"/>
+        <n v="11"/>
+        <n v="19"/>
+        <n v="17"/>
+        <n v="3"/>
+        <n v="5"/>
+        <n v="10"/>
+        <n v="2"/>
+        <n v="16"/>
+        <n v="14"/>
+        <n v="4"/>
+        <n v="6"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Training Hours per Week" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3" maxValue="16.593073510943022" count="97">
@@ -1677,7 +3477,121 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="VO2max (ml/kg/min)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="31.128201351267911" maxValue="55.42571821709322"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="31.128201351267911" maxValue="55.42571821709322" count="100">
+        <n v="40.677851580270243"/>
+        <n v="44.918944941043662"/>
+        <n v="38.596939026089331"/>
+        <n v="44.598848902439379"/>
+        <n v="38.009875118231932"/>
+        <n v="43.167817794357028"/>
+        <n v="40.567840823419957"/>
+        <n v="36.977601304144088"/>
+        <n v="40.146161896854061"/>
+        <n v="47.281974906963363"/>
+        <n v="40.305764617198889"/>
+        <n v="51.532260458314312"/>
+        <n v="48.517551586775298"/>
+        <n v="41.933264079910487"/>
+        <n v="39.770456410453342"/>
+        <n v="33.887288849383182"/>
+        <n v="42.883015806845357"/>
+        <n v="38.798137404083683"/>
+        <n v="46.214739535858541"/>
+        <n v="41.753795355111428"/>
+        <n v="42.044563602553303"/>
+        <n v="36.524879909943422"/>
+        <n v="39.617311802398959"/>
+        <n v="44.263470141487083"/>
+        <n v="40.6042699419813"/>
+        <n v="31.128201351267911"/>
+        <n v="35.95933248201959"/>
+        <n v="49.746472488487598"/>
+        <n v="44.756291839315978"/>
+        <n v="37.794939062437827"/>
+        <n v="41.325833077848444"/>
+        <n v="41.266986747752149"/>
+        <n v="39.075950247995742"/>
+        <n v="39.261229925763921"/>
+        <n v="45.566957643788783"/>
+        <n v="41.308316057915448"/>
+        <n v="50.779209475869948"/>
+        <n v="44.312820099155232"/>
+        <n v="39.262752050647293"/>
+        <n v="36.451974776359151"/>
+        <n v="39.174797579974609"/>
+        <n v="43.344951312535173"/>
+        <n v="40.616747173604928"/>
+        <n v="40.743835888534512"/>
+        <n v="45.022907993620173"/>
+        <n v="48.813666307774852"/>
+        <n v="49.992384781924358"/>
+        <n v="44.257467597343371"/>
+        <n v="45.127010720133583"/>
+        <n v="44.092458245342073"/>
+        <n v="55.42571821709322"/>
+        <n v="38.858550153955292"/>
+        <n v="40.917898600696383"/>
+        <n v="45.180246851110731"/>
+        <n v="45.677347449555043"/>
+        <n v="48.145374322389202"/>
+        <n v="44.91098876080266"/>
+        <n v="41.685041024154202"/>
+        <n v="42.414022429519378"/>
+        <n v="42.921262662217281"/>
+        <n v="49.81177170723997"/>
+        <n v="38.501171518186673"/>
+        <n v="48.684397413917857"/>
+        <n v="46.137645084779422"/>
+        <n v="37.904763641369463"/>
+        <n v="44.375652713412023"/>
+        <n v="41.439320577091671"/>
+        <n v="41.865219942434187"/>
+        <n v="39.953574801901347"/>
+        <n v="38.587905529608683"/>
+        <n v="34.719168939920849"/>
+        <n v="46.657156556537601"/>
+        <n v="39.833572851855408"/>
+        <n v="44.254671817581389"/>
+        <n v="37.97044879182787"/>
+        <n v="43.074949157414991"/>
+        <n v="43.294584402401362"/>
+        <n v="37.697500943439223"/>
+        <n v="35.337864757025919"/>
+        <n v="41.786280544550117"/>
+        <n v="49.623169408521882"/>
+        <n v="43.270380250669113"/>
+        <n v="37.3221120422699"/>
+        <n v="50.260289821793613"/>
+        <n v="50.180157905676552"/>
+        <n v="53.46058785257825"/>
+        <n v="44.054745307512668"/>
+        <n v="44.651501069889612"/>
+        <n v="42.715219101999708"/>
+        <n v="32.517642122496767"/>
+        <n v="38.350074018552483"/>
+        <n v="48.441429951409042"/>
+        <n v="41.395714733152133"/>
+        <n v="44.906111389914301"/>
+        <n v="43.40691411642355"/>
+        <n v="48.194720209336843"/>
+        <n v="41.381394972657517"/>
+        <n v="31.388219575351371"/>
+        <n v="33.298860031852421"/>
+        <n v="37.092224566582018"/>
+      </sharedItems>
+      <fieldGroup base="4">
+        <rangePr autoStart="0" autoEnd="0" startNum="30" endNum="60" groupInterval="5"/>
+        <groupItems count="8">
+          <s v="&lt;30"/>
+          <s v="30-35"/>
+          <s v="35-40"/>
+          <s v="40-45"/>
+          <s v="45-50"/>
+          <s v="50-55"/>
+          <s v="55-60"/>
+          <s v="&gt;60"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
     <cacheField name="Power Output (W)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="150" maxValue="328.77840535148943"/>
@@ -1707,10 +3621,11 @@
         <s v="Beginner"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="Power Efficiency" numFmtId="0" formula="'Power Output (W)' /'Average Heart Rate at Training Load (bpm)'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="19130086"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1720,10 +3635,10 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
   <r>
     <n v="1"/>
-    <n v="24"/>
-    <n v="13"/>
     <x v="0"/>
-    <n v="40.677851580270243"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="254.1455691722843"/>
     <n v="12.580566876726239"/>
     <n v="4"/>
@@ -1735,10 +3650,10 @@
   </r>
   <r>
     <n v="2"/>
-    <n v="37"/>
-    <n v="9"/>
     <x v="1"/>
-    <n v="44.918944941043662"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="249.20890039058179"/>
     <n v="10.947109475183129"/>
     <n v="6.7411386888150302"/>
@@ -1750,10 +3665,10 @@
   </r>
   <r>
     <n v="3"/>
-    <n v="32"/>
-    <n v="15"/>
     <x v="2"/>
-    <n v="38.596939026089331"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <n v="225.17369086381851"/>
     <n v="6.2577778425709436"/>
     <n v="7.2109579218503113"/>
@@ -1765,10 +3680,10 @@
   </r>
   <r>
     <n v="4"/>
-    <n v="28"/>
-    <n v="13"/>
     <x v="3"/>
-    <n v="44.598848902439379"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
     <n v="301.82399194861438"/>
     <n v="12.62647787557407"/>
     <n v="4.8184906283984432"/>
@@ -1780,10 +3695,10 @@
   </r>
   <r>
     <n v="5"/>
-    <n v="25"/>
-    <n v="1"/>
     <x v="4"/>
-    <n v="38.009875118231932"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
     <n v="252.19432776690149"/>
     <n v="13.32586312308929"/>
     <n v="4.6213060711372433"/>
@@ -1795,10 +3710,10 @@
   </r>
   <r>
     <n v="6"/>
-    <n v="38"/>
-    <n v="7"/>
     <x v="5"/>
-    <n v="43.167817794357028"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="5"/>
     <n v="262.84686419205491"/>
     <n v="13.359663977245431"/>
     <n v="6.4026897850239788"/>
@@ -1810,10 +3725,10 @@
   </r>
   <r>
     <n v="7"/>
-    <n v="24"/>
-    <n v="9"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
-    <n v="40.567840823419957"/>
+    <x v="6"/>
     <n v="205.08737037213831"/>
     <n v="10.4538088935019"/>
     <n v="4.1066020703279804"/>
@@ -1825,10 +3740,10 @@
   </r>
   <r>
     <n v="8"/>
-    <n v="43"/>
-    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
     <x v="7"/>
-    <n v="36.977601304144088"/>
+    <x v="7"/>
     <n v="150"/>
     <n v="7.2452245861283684"/>
     <n v="7.1542027218110373"/>
@@ -1840,10 +3755,10 @@
   </r>
   <r>
     <n v="9"/>
-    <n v="36"/>
-    <n v="12"/>
+    <x v="7"/>
+    <x v="5"/>
     <x v="8"/>
-    <n v="40.146161896854061"/>
+    <x v="8"/>
     <n v="295.98458459240419"/>
     <n v="15.11545947997263"/>
     <n v="4.8917763460467771"/>
@@ -1855,10 +3770,10 @@
   </r>
   <r>
     <n v="10"/>
-    <n v="40"/>
-    <n v="8"/>
+    <x v="8"/>
+    <x v="6"/>
     <x v="9"/>
-    <n v="47.281974906963363"/>
+    <x v="9"/>
     <n v="303.10546203986701"/>
     <n v="9.4263569021323903"/>
     <n v="5.1887857025897892"/>
@@ -1870,10 +3785,10 @@
   </r>
   <r>
     <n v="11"/>
-    <n v="28"/>
-    <n v="11"/>
+    <x v="3"/>
+    <x v="7"/>
     <x v="10"/>
-    <n v="40.305764617198889"/>
+    <x v="10"/>
     <n v="245.7839322569744"/>
     <n v="13.64400076925336"/>
     <n v="6.9463370754964533"/>
@@ -1885,10 +3800,10 @@
   </r>
   <r>
     <n v="12"/>
-    <n v="28"/>
-    <n v="19"/>
+    <x v="3"/>
+    <x v="8"/>
     <x v="11"/>
-    <n v="51.532260458314312"/>
+    <x v="11"/>
     <n v="279.76062750527097"/>
     <n v="11.626338339960419"/>
     <n v="5.0674439191547327"/>
@@ -1900,10 +3815,10 @@
   </r>
   <r>
     <n v="13"/>
-    <n v="41"/>
-    <n v="17"/>
+    <x v="9"/>
+    <x v="9"/>
     <x v="12"/>
-    <n v="48.517551586775298"/>
+    <x v="12"/>
     <n v="289.41605386880178"/>
     <n v="15.17630630031457"/>
     <n v="4.9867461540669664"/>
@@ -1915,10 +3830,10 @@
   </r>
   <r>
     <n v="14"/>
-    <n v="38"/>
-    <n v="8"/>
+    <x v="5"/>
+    <x v="6"/>
     <x v="13"/>
-    <n v="41.933264079910487"/>
+    <x v="13"/>
     <n v="291.36421724701182"/>
     <n v="12.66104416972626"/>
     <n v="7.2636551569638206"/>
@@ -1930,10 +3845,10 @@
   </r>
   <r>
     <n v="15"/>
-    <n v="21"/>
-    <n v="3"/>
+    <x v="10"/>
+    <x v="10"/>
     <x v="14"/>
-    <n v="39.770456410453342"/>
+    <x v="14"/>
     <n v="254.7415053792582"/>
     <n v="3.673940228782222"/>
     <n v="6.8683303816589012"/>
@@ -1945,10 +3860,10 @@
   </r>
   <r>
     <n v="16"/>
-    <n v="25"/>
-    <n v="3"/>
+    <x v="4"/>
+    <x v="10"/>
     <x v="15"/>
-    <n v="33.887288849383182"/>
+    <x v="15"/>
     <n v="251.16419314418479"/>
     <n v="8.8949920159372091"/>
     <n v="7.0001205527511567"/>
@@ -1960,10 +3875,10 @@
   </r>
   <r>
     <n v="17"/>
-    <n v="41"/>
-    <n v="1"/>
+    <x v="9"/>
+    <x v="3"/>
     <x v="16"/>
-    <n v="42.883015806845357"/>
+    <x v="16"/>
     <n v="248.50556271760021"/>
     <n v="13.481628033167411"/>
     <n v="6.9423157001178426"/>
@@ -1975,10 +3890,10 @@
   </r>
   <r>
     <n v="18"/>
-    <n v="20"/>
-    <n v="5"/>
+    <x v="11"/>
+    <x v="11"/>
     <x v="17"/>
-    <n v="38.798137404083683"/>
+    <x v="17"/>
     <n v="240.1166957041184"/>
     <n v="12.55518343687668"/>
     <n v="7.034367604541"/>
@@ -1990,10 +3905,10 @@
   </r>
   <r>
     <n v="19"/>
-    <n v="39"/>
-    <n v="10"/>
+    <x v="12"/>
+    <x v="12"/>
     <x v="18"/>
-    <n v="46.214739535858541"/>
+    <x v="18"/>
     <n v="202.6515884654743"/>
     <n v="10.73989691421081"/>
     <n v="6.4525627116088344"/>
@@ -2005,10 +3920,10 @@
   </r>
   <r>
     <n v="20"/>
-    <n v="38"/>
-    <n v="7"/>
+    <x v="5"/>
+    <x v="4"/>
     <x v="19"/>
-    <n v="41.753795355111428"/>
+    <x v="19"/>
     <n v="239.57040673003829"/>
     <n v="11.87115066113979"/>
     <n v="7.7401115347398122"/>
@@ -2020,10 +3935,10 @@
   </r>
   <r>
     <n v="21"/>
-    <n v="19"/>
-    <n v="9"/>
+    <x v="13"/>
+    <x v="1"/>
     <x v="20"/>
-    <n v="42.044563602553303"/>
+    <x v="20"/>
     <n v="281.26734178212843"/>
     <n v="15.170162174166141"/>
     <n v="7.0547192860799717"/>
@@ -2035,10 +3950,10 @@
   </r>
   <r>
     <n v="22"/>
-    <n v="41"/>
-    <n v="7"/>
+    <x v="9"/>
+    <x v="4"/>
     <x v="21"/>
-    <n v="36.524879909943422"/>
+    <x v="21"/>
     <n v="225.97418711409949"/>
     <n v="11.42563198014077"/>
     <n v="6.5948255310263821"/>
@@ -2050,10 +3965,10 @@
   </r>
   <r>
     <n v="23"/>
-    <n v="29"/>
-    <n v="9"/>
+    <x v="14"/>
+    <x v="1"/>
     <x v="22"/>
-    <n v="39.617311802398959"/>
+    <x v="22"/>
     <n v="243.46891572318179"/>
     <n v="8.2049799656181648"/>
     <n v="5.4047710899231562"/>
@@ -2065,10 +3980,10 @@
   </r>
   <r>
     <n v="24"/>
-    <n v="23"/>
-    <n v="8"/>
+    <x v="15"/>
+    <x v="6"/>
     <x v="23"/>
-    <n v="44.263470141487083"/>
+    <x v="23"/>
     <n v="220.6814642252767"/>
     <n v="12.58726813063333"/>
     <n v="6.4000121072396912"/>
@@ -2080,10 +3995,10 @@
   </r>
   <r>
     <n v="25"/>
-    <n v="19"/>
-    <n v="12"/>
+    <x v="13"/>
+    <x v="5"/>
     <x v="24"/>
-    <n v="40.6042699419813"/>
+    <x v="24"/>
     <n v="272.6453354483358"/>
     <n v="12.805158549854109"/>
     <n v="5.8446555117932339"/>
@@ -2095,10 +4010,10 @@
   </r>
   <r>
     <n v="26"/>
-    <n v="38"/>
-    <n v="2"/>
+    <x v="5"/>
+    <x v="13"/>
     <x v="25"/>
-    <n v="31.128201351267911"/>
+    <x v="25"/>
     <n v="171.1473003189283"/>
     <n v="10.43719874802737"/>
     <n v="9.1089956631888338"/>
@@ -2110,10 +4025,10 @@
   </r>
   <r>
     <n v="27"/>
-    <n v="18"/>
-    <n v="1"/>
+    <x v="16"/>
+    <x v="3"/>
     <x v="26"/>
-    <n v="35.95933248201959"/>
+    <x v="26"/>
     <n v="241.01627573614269"/>
     <n v="11.70330765449023"/>
     <n v="7.6947013500995647"/>
@@ -2125,10 +4040,10 @@
   </r>
   <r>
     <n v="28"/>
-    <n v="29"/>
-    <n v="16"/>
+    <x v="14"/>
+    <x v="14"/>
     <x v="27"/>
-    <n v="49.746472488487598"/>
+    <x v="27"/>
     <n v="268.6478148957388"/>
     <n v="13.47517797398927"/>
     <n v="5.7936218445537788"/>
@@ -2140,10 +4055,10 @@
   </r>
   <r>
     <n v="29"/>
-    <n v="43"/>
-    <n v="5"/>
+    <x v="6"/>
+    <x v="11"/>
     <x v="28"/>
-    <n v="44.756291839315978"/>
+    <x v="28"/>
     <n v="176.82562866601609"/>
     <n v="9.1000184307862604"/>
     <n v="6.8479840946593402"/>
@@ -2155,10 +4070,10 @@
   </r>
   <r>
     <n v="30"/>
-    <n v="39"/>
-    <n v="3"/>
+    <x v="12"/>
+    <x v="10"/>
     <x v="29"/>
-    <n v="37.794939062437827"/>
+    <x v="29"/>
     <n v="271.35619921704711"/>
     <n v="6.9157307264635737"/>
     <n v="5.5534268320999178"/>
@@ -2170,10 +4085,10 @@
   </r>
   <r>
     <n v="31"/>
-    <n v="29"/>
-    <n v="12"/>
+    <x v="14"/>
+    <x v="5"/>
     <x v="30"/>
-    <n v="41.325833077848444"/>
+    <x v="30"/>
     <n v="268.80723326931809"/>
     <n v="16.332967556967841"/>
     <n v="4.8531093843703967"/>
@@ -2185,10 +4100,10 @@
   </r>
   <r>
     <n v="32"/>
-    <n v="42"/>
-    <n v="8"/>
+    <x v="17"/>
+    <x v="6"/>
     <x v="31"/>
-    <n v="41.266986747752149"/>
+    <x v="31"/>
     <n v="304.78708102421939"/>
     <n v="12.525663881549599"/>
     <n v="6.5182785182983336"/>
@@ -2200,10 +4115,10 @@
   </r>
   <r>
     <n v="33"/>
-    <n v="34"/>
-    <n v="3"/>
+    <x v="18"/>
+    <x v="10"/>
     <x v="32"/>
-    <n v="39.075950247995742"/>
+    <x v="32"/>
     <n v="270.59140049234458"/>
     <n v="11.02332679407751"/>
     <n v="5.2206664250840271"/>
@@ -2215,10 +4130,10 @@
   </r>
   <r>
     <n v="34"/>
-    <n v="44"/>
-    <n v="1"/>
+    <x v="19"/>
+    <x v="3"/>
     <x v="33"/>
-    <n v="39.261229925763921"/>
+    <x v="33"/>
     <n v="195.89134999727139"/>
     <n v="8.0759630361988286"/>
     <n v="8.3506985514653778"/>
@@ -2230,10 +4145,10 @@
   </r>
   <r>
     <n v="35"/>
-    <n v="44"/>
-    <n v="3"/>
+    <x v="19"/>
+    <x v="10"/>
     <x v="34"/>
-    <n v="45.566957643788783"/>
+    <x v="34"/>
     <n v="208.87873963799811"/>
     <n v="9.8769363767434051"/>
     <n v="8.7618304418447579"/>
@@ -2245,10 +4160,10 @@
   </r>
   <r>
     <n v="36"/>
-    <n v="27"/>
-    <n v="5"/>
+    <x v="20"/>
+    <x v="11"/>
     <x v="35"/>
-    <n v="41.308316057915448"/>
+    <x v="35"/>
     <n v="206.11839028621759"/>
     <n v="9.6417546485974963"/>
     <n v="4.4039528728400139"/>
@@ -2260,10 +4175,10 @@
   </r>
   <r>
     <n v="37"/>
-    <n v="33"/>
-    <n v="15"/>
+    <x v="21"/>
+    <x v="2"/>
     <x v="36"/>
-    <n v="50.779209475869948"/>
+    <x v="36"/>
     <n v="215.53433744454179"/>
     <n v="9.80440954726161"/>
     <n v="4.0746546090931917"/>
@@ -2275,10 +4190,10 @@
   </r>
   <r>
     <n v="38"/>
-    <n v="32"/>
-    <n v="14"/>
+    <x v="2"/>
+    <x v="15"/>
     <x v="37"/>
-    <n v="44.312820099155232"/>
+    <x v="37"/>
     <n v="252.3506484049318"/>
     <n v="11.398041778789519"/>
     <n v="5.6290239180946706"/>
@@ -2290,10 +4205,10 @@
   </r>
   <r>
     <n v="39"/>
-    <n v="32"/>
-    <n v="3"/>
+    <x v="2"/>
+    <x v="10"/>
     <x v="38"/>
-    <n v="39.262752050647293"/>
+    <x v="38"/>
     <n v="274.34296236136908"/>
     <n v="5.7262864722675459"/>
     <n v="6.1761972415332149"/>
@@ -2305,10 +4220,10 @@
   </r>
   <r>
     <n v="40"/>
-    <n v="36"/>
-    <n v="1"/>
+    <x v="7"/>
+    <x v="3"/>
     <x v="39"/>
-    <n v="36.451974776359151"/>
+    <x v="39"/>
     <n v="171.8590086491165"/>
     <n v="11.31820778917252"/>
     <n v="7.0886572443355851"/>
@@ -2320,10 +4235,10 @@
   </r>
   <r>
     <n v="41"/>
-    <n v="29"/>
-    <n v="5"/>
+    <x v="14"/>
+    <x v="11"/>
     <x v="40"/>
-    <n v="39.174797579974609"/>
+    <x v="40"/>
     <n v="272.70643985022491"/>
     <n v="7.1939319264193013"/>
     <n v="6.0424017305111892"/>
@@ -2335,10 +4250,10 @@
   </r>
   <r>
     <n v="42"/>
-    <n v="40"/>
-    <n v="14"/>
+    <x v="8"/>
+    <x v="15"/>
     <x v="41"/>
-    <n v="43.344951312535173"/>
+    <x v="41"/>
     <n v="272.40187210052011"/>
     <n v="14.16055520733763"/>
     <n v="5.0021139416561482"/>
@@ -2350,10 +4265,10 @@
   </r>
   <r>
     <n v="43"/>
-    <n v="37"/>
-    <n v="7"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="42"/>
-    <n v="40.616747173604928"/>
+    <x v="42"/>
     <n v="260.22790182298269"/>
     <n v="7.0456850808036533"/>
     <n v="7.5449216203275364"/>
@@ -2365,10 +4280,10 @@
   </r>
   <r>
     <n v="44"/>
-    <n v="42"/>
-    <n v="9"/>
+    <x v="17"/>
+    <x v="1"/>
     <x v="43"/>
-    <n v="40.743835888534512"/>
+    <x v="43"/>
     <n v="270.55283741260808"/>
     <n v="13.968999186594811"/>
     <n v="6.5222111464317454"/>
@@ -2380,10 +4295,10 @@
   </r>
   <r>
     <n v="45"/>
-    <n v="20"/>
-    <n v="15"/>
+    <x v="11"/>
+    <x v="2"/>
     <x v="44"/>
-    <n v="45.022907993620173"/>
+    <x v="44"/>
     <n v="238.58001350071669"/>
     <n v="11.65695865800004"/>
     <n v="4.571991338986499"/>
@@ -2395,10 +4310,10 @@
   </r>
   <r>
     <n v="46"/>
-    <n v="22"/>
-    <n v="15"/>
+    <x v="22"/>
+    <x v="2"/>
     <x v="45"/>
-    <n v="48.813666307774852"/>
+    <x v="45"/>
     <n v="283.07993068343433"/>
     <n v="12.759310206063139"/>
     <n v="7.095714096880565"/>
@@ -2410,10 +4325,10 @@
   </r>
   <r>
     <n v="47"/>
-    <n v="36"/>
-    <n v="10"/>
+    <x v="7"/>
+    <x v="12"/>
     <x v="46"/>
-    <n v="49.992384781924358"/>
+    <x v="46"/>
     <n v="240.05273766426549"/>
     <n v="10.539983897025881"/>
     <n v="5.2303747206863429"/>
@@ -2425,10 +4340,10 @@
   </r>
   <r>
     <n v="48"/>
-    <n v="24"/>
-    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="47"/>
-    <n v="44.257467597343371"/>
+    <x v="47"/>
     <n v="194.75107379227069"/>
     <n v="16.711796263523109"/>
     <n v="4.0170844971093818"/>
@@ -2440,10 +4355,10 @@
   </r>
   <r>
     <n v="49"/>
-    <n v="38"/>
-    <n v="19"/>
+    <x v="5"/>
+    <x v="8"/>
     <x v="48"/>
-    <n v="45.127010720133583"/>
+    <x v="48"/>
     <n v="255.7243590610488"/>
     <n v="9.9277206367057769"/>
     <n v="6.023432997953428"/>
@@ -2455,10 +4370,10 @@
   </r>
   <r>
     <n v="50"/>
-    <n v="26"/>
-    <n v="7"/>
+    <x v="23"/>
+    <x v="4"/>
     <x v="49"/>
-    <n v="44.092458245342073"/>
+    <x v="49"/>
     <n v="228.86308046224289"/>
     <n v="14.417174013718361"/>
     <n v="6.1857051258424516"/>
@@ -2470,10 +4385,10 @@
   </r>
   <r>
     <n v="51"/>
-    <n v="24"/>
-    <n v="17"/>
+    <x v="0"/>
+    <x v="9"/>
     <x v="50"/>
-    <n v="55.42571821709322"/>
+    <x v="50"/>
     <n v="298.41068102872498"/>
     <n v="10.975485204391671"/>
     <n v="6.2260696110691196"/>
@@ -2485,10 +4400,10 @@
   </r>
   <r>
     <n v="52"/>
-    <n v="35"/>
-    <n v="4"/>
+    <x v="24"/>
+    <x v="16"/>
     <x v="51"/>
-    <n v="38.858550153955292"/>
+    <x v="51"/>
     <n v="215.47020042433769"/>
     <n v="8.7556152965682443"/>
     <n v="7.733927290279877"/>
@@ -2500,10 +4415,10 @@
   </r>
   <r>
     <n v="53"/>
-    <n v="21"/>
-    <n v="5"/>
+    <x v="10"/>
+    <x v="11"/>
     <x v="25"/>
-    <n v="40.917898600696383"/>
+    <x v="52"/>
     <n v="216.36823519776789"/>
     <n v="7.6322133080394989"/>
     <n v="7.9161247285776906"/>
@@ -2515,10 +4430,10 @@
   </r>
   <r>
     <n v="54"/>
-    <n v="42"/>
-    <n v="7"/>
+    <x v="17"/>
+    <x v="4"/>
     <x v="52"/>
-    <n v="45.180246851110731"/>
+    <x v="53"/>
     <n v="246.14361063420969"/>
     <n v="8.0574677649803554"/>
     <n v="7.0967647074542333"/>
@@ -2530,10 +4445,10 @@
   </r>
   <r>
     <n v="55"/>
-    <n v="31"/>
-    <n v="13"/>
+    <x v="25"/>
+    <x v="0"/>
     <x v="53"/>
-    <n v="45.677347449555043"/>
+    <x v="54"/>
     <n v="249.4294114169883"/>
     <n v="9.0316466320878419"/>
     <n v="5.1281889775522469"/>
@@ -2545,10 +4460,10 @@
   </r>
   <r>
     <n v="56"/>
-    <n v="35"/>
-    <n v="15"/>
+    <x v="24"/>
+    <x v="2"/>
     <x v="54"/>
-    <n v="48.145374322389202"/>
+    <x v="55"/>
     <n v="255.551533414441"/>
     <n v="8.7834760584905567"/>
     <n v="4.9725850479358069"/>
@@ -2560,10 +4475,10 @@
   </r>
   <r>
     <n v="57"/>
-    <n v="43"/>
-    <n v="11"/>
+    <x v="6"/>
+    <x v="7"/>
     <x v="55"/>
-    <n v="44.91098876080266"/>
+    <x v="56"/>
     <n v="273.18195208139281"/>
     <n v="10.561642161949511"/>
     <n v="6.8273756603398184"/>
@@ -2575,10 +4490,10 @@
   </r>
   <r>
     <n v="58"/>
-    <n v="26"/>
-    <n v="4"/>
+    <x v="23"/>
+    <x v="16"/>
     <x v="56"/>
-    <n v="41.685041024154202"/>
+    <x v="57"/>
     <n v="191.88538210950651"/>
     <n v="7.0427240622967213"/>
     <n v="7.2884554524316671"/>
@@ -2590,10 +4505,10 @@
   </r>
   <r>
     <n v="59"/>
-    <n v="43"/>
-    <n v="13"/>
+    <x v="6"/>
+    <x v="0"/>
     <x v="57"/>
-    <n v="42.414022429519378"/>
+    <x v="58"/>
     <n v="245.11789171393639"/>
     <n v="8.6958536786624272"/>
     <n v="6.1733539398956774"/>
@@ -2605,10 +4520,10 @@
   </r>
   <r>
     <n v="60"/>
-    <n v="38"/>
-    <n v="7"/>
+    <x v="5"/>
+    <x v="4"/>
     <x v="58"/>
-    <n v="42.921262662217281"/>
+    <x v="59"/>
     <n v="223.07080672410399"/>
     <n v="12.95934463952427"/>
     <n v="4.209357309887082"/>
@@ -2620,10 +4535,10 @@
   </r>
   <r>
     <n v="61"/>
-    <n v="19"/>
-    <n v="19"/>
+    <x v="13"/>
+    <x v="8"/>
     <x v="59"/>
-    <n v="49.81177170723997"/>
+    <x v="60"/>
     <n v="319.78382539604252"/>
     <n v="11.032010352555769"/>
     <n v="4.431966208800171"/>
@@ -2635,10 +4550,10 @@
   </r>
   <r>
     <n v="62"/>
-    <n v="37"/>
-    <n v="2"/>
+    <x v="1"/>
+    <x v="13"/>
     <x v="25"/>
-    <n v="38.501171518186673"/>
+    <x v="61"/>
     <n v="193.94900068976511"/>
     <n v="4.6793499494613879"/>
     <n v="9.3070189019105563"/>
@@ -2650,10 +4565,10 @@
   </r>
   <r>
     <n v="63"/>
-    <n v="32"/>
-    <n v="10"/>
+    <x v="2"/>
+    <x v="12"/>
     <x v="60"/>
-    <n v="48.684397413917857"/>
+    <x v="62"/>
     <n v="268.43495381866239"/>
     <n v="14.55410018425412"/>
     <n v="5.6431950891404474"/>
@@ -2665,10 +4580,10 @@
   </r>
   <r>
     <n v="64"/>
-    <n v="24"/>
-    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="61"/>
-    <n v="46.137645084779422"/>
+    <x v="63"/>
     <n v="240.95160606708461"/>
     <n v="10.03492812458372"/>
     <n v="5.9367605907962666"/>
@@ -2680,10 +4595,10 @@
   </r>
   <r>
     <n v="65"/>
-    <n v="29"/>
-    <n v="6"/>
+    <x v="14"/>
+    <x v="17"/>
     <x v="62"/>
-    <n v="37.904763641369463"/>
+    <x v="64"/>
     <n v="236.15075341759299"/>
     <n v="11.3083857192129"/>
     <n v="6.8920806863362083"/>
@@ -2695,10 +4610,10 @@
   </r>
   <r>
     <n v="66"/>
-    <n v="25"/>
-    <n v="12"/>
+    <x v="4"/>
+    <x v="5"/>
     <x v="63"/>
-    <n v="44.375652713412023"/>
+    <x v="65"/>
     <n v="217.8941596319772"/>
     <n v="12.949648763410019"/>
     <n v="8.6077687808149541"/>
@@ -2710,10 +4625,10 @@
   </r>
   <r>
     <n v="67"/>
-    <n v="32"/>
-    <n v="12"/>
+    <x v="2"/>
+    <x v="5"/>
     <x v="64"/>
-    <n v="41.439320577091671"/>
+    <x v="66"/>
     <n v="268.76729493453632"/>
     <n v="10.623575191683789"/>
     <n v="7.8026269212749204"/>
@@ -2725,10 +4640,10 @@
   </r>
   <r>
     <n v="68"/>
-    <n v="20"/>
-    <n v="11"/>
+    <x v="11"/>
+    <x v="7"/>
     <x v="65"/>
-    <n v="41.865219942434187"/>
+    <x v="67"/>
     <n v="225.40803627783961"/>
     <n v="9.742208247764534"/>
     <n v="4.1551376076379487"/>
@@ -2740,10 +4655,10 @@
   </r>
   <r>
     <n v="69"/>
-    <n v="31"/>
-    <n v="7"/>
+    <x v="25"/>
+    <x v="4"/>
     <x v="66"/>
-    <n v="39.953574801901347"/>
+    <x v="68"/>
     <n v="200.5174978080266"/>
     <n v="10.537576268106861"/>
     <n v="5.1458582627175717"/>
@@ -2755,10 +4670,10 @@
   </r>
   <r>
     <n v="70"/>
-    <n v="34"/>
-    <n v="1"/>
+    <x v="18"/>
+    <x v="3"/>
     <x v="67"/>
-    <n v="38.587905529608683"/>
+    <x v="69"/>
     <n v="219.46900751055171"/>
     <n v="9.0449953876301521"/>
     <n v="4.9377246007078259"/>
@@ -2770,10 +4685,10 @@
   </r>
   <r>
     <n v="71"/>
-    <n v="21"/>
-    <n v="1"/>
+    <x v="10"/>
+    <x v="3"/>
     <x v="68"/>
-    <n v="34.719168939920849"/>
+    <x v="70"/>
     <n v="216.55639493901941"/>
     <n v="11.32805520078996"/>
     <n v="5.6327540518611219"/>
@@ -2785,10 +4700,10 @@
   </r>
   <r>
     <n v="72"/>
-    <n v="35"/>
-    <n v="13"/>
+    <x v="24"/>
+    <x v="0"/>
     <x v="69"/>
-    <n v="46.657156556537601"/>
+    <x v="71"/>
     <n v="203.9294176450743"/>
     <n v="10.08163393085459"/>
     <n v="6.2923288042792294"/>
@@ -2800,10 +4715,10 @@
   </r>
   <r>
     <n v="73"/>
-    <n v="25"/>
-    <n v="9"/>
+    <x v="4"/>
+    <x v="1"/>
     <x v="70"/>
-    <n v="39.833572851855408"/>
+    <x v="72"/>
     <n v="246.3000218511425"/>
     <n v="12.0897990544732"/>
     <n v="6.0019669112182532"/>
@@ -2815,10 +4730,10 @@
   </r>
   <r>
     <n v="74"/>
-    <n v="21"/>
-    <n v="3"/>
+    <x v="10"/>
+    <x v="10"/>
     <x v="71"/>
-    <n v="44.254671817581389"/>
+    <x v="73"/>
     <n v="186.63987689795829"/>
     <n v="10.344061821522059"/>
     <n v="5.0117852762268154"/>
@@ -2830,10 +4745,10 @@
   </r>
   <r>
     <n v="75"/>
-    <n v="19"/>
-    <n v="7"/>
+    <x v="13"/>
+    <x v="4"/>
     <x v="72"/>
-    <n v="37.97044879182787"/>
+    <x v="74"/>
     <n v="294.28546887629221"/>
     <n v="10.776667169787601"/>
     <n v="4.4345265715003146"/>
@@ -2845,10 +4760,10 @@
   </r>
   <r>
     <n v="76"/>
-    <n v="23"/>
-    <n v="6"/>
+    <x v="15"/>
+    <x v="17"/>
     <x v="73"/>
-    <n v="43.074949157414991"/>
+    <x v="75"/>
     <n v="179.51383923225299"/>
     <n v="10.88092627139744"/>
     <n v="6.2635334064555952"/>
@@ -2860,10 +4775,10 @@
   </r>
   <r>
     <n v="77"/>
-    <n v="39"/>
-    <n v="8"/>
+    <x v="12"/>
+    <x v="6"/>
     <x v="74"/>
-    <n v="43.294584402401362"/>
+    <x v="76"/>
     <n v="240.40950277296309"/>
     <n v="12.4619194321037"/>
     <n v="6.5242317555252001"/>
@@ -2875,10 +4790,10 @@
   </r>
   <r>
     <n v="78"/>
-    <n v="27"/>
-    <n v="9"/>
+    <x v="20"/>
+    <x v="1"/>
     <x v="75"/>
-    <n v="37.697500943439223"/>
+    <x v="77"/>
     <n v="239.36109410730401"/>
     <n v="11.68970766336999"/>
     <n v="7.031653199185194"/>
@@ -2890,10 +4805,10 @@
   </r>
   <r>
     <n v="79"/>
-    <n v="21"/>
-    <n v="5"/>
+    <x v="10"/>
+    <x v="11"/>
     <x v="76"/>
-    <n v="35.337864757025919"/>
+    <x v="78"/>
     <n v="270.20803831651341"/>
     <n v="8.8804964272194482"/>
     <n v="8.9191252842038953"/>
@@ -2905,10 +4820,10 @@
   </r>
   <r>
     <n v="80"/>
-    <n v="39"/>
-    <n v="1"/>
+    <x v="12"/>
+    <x v="3"/>
     <x v="77"/>
-    <n v="41.786280544550117"/>
+    <x v="79"/>
     <n v="173.15919608320451"/>
     <n v="9.7530585261848177"/>
     <n v="6.964923533237692"/>
@@ -2920,10 +4835,10 @@
   </r>
   <r>
     <n v="81"/>
-    <n v="35"/>
-    <n v="19"/>
+    <x v="24"/>
+    <x v="8"/>
     <x v="78"/>
-    <n v="49.623169408521882"/>
+    <x v="80"/>
     <n v="280.03373662118582"/>
     <n v="12.60713901720383"/>
     <n v="5.7972641358437604"/>
@@ -2935,10 +4850,10 @@
   </r>
   <r>
     <n v="82"/>
-    <n v="43"/>
-    <n v="10"/>
+    <x v="6"/>
+    <x v="12"/>
     <x v="79"/>
-    <n v="43.270380250669113"/>
+    <x v="81"/>
     <n v="286.18050696506413"/>
     <n v="13.614247356711831"/>
     <n v="6.8072648403806468"/>
@@ -2950,10 +4865,10 @@
   </r>
   <r>
     <n v="83"/>
-    <n v="29"/>
-    <n v="12"/>
+    <x v="14"/>
+    <x v="5"/>
     <x v="80"/>
-    <n v="37.3221120422699"/>
+    <x v="82"/>
     <n v="244.43165895270809"/>
     <n v="9.4533385669199408"/>
     <n v="5.3541828850399282"/>
@@ -2965,10 +4880,10 @@
   </r>
   <r>
     <n v="84"/>
-    <n v="19"/>
-    <n v="15"/>
+    <x v="13"/>
+    <x v="2"/>
     <x v="81"/>
-    <n v="50.260289821793613"/>
+    <x v="83"/>
     <n v="230.82139709435691"/>
     <n v="12.093046434921501"/>
     <n v="5.7512085591509789"/>
@@ -2980,10 +4895,10 @@
   </r>
   <r>
     <n v="85"/>
-    <n v="27"/>
-    <n v="9"/>
+    <x v="20"/>
+    <x v="1"/>
     <x v="82"/>
-    <n v="50.180157905676552"/>
+    <x v="84"/>
     <n v="265.4493131917082"/>
     <n v="12.648044858559111"/>
     <n v="5.9111506408177572"/>
@@ -2995,10 +4910,10 @@
   </r>
   <r>
     <n v="86"/>
-    <n v="21"/>
-    <n v="17"/>
+    <x v="10"/>
+    <x v="9"/>
     <x v="83"/>
-    <n v="53.46058785257825"/>
+    <x v="85"/>
     <n v="328.77840535148943"/>
     <n v="16.026808007696619"/>
     <n v="4"/>
@@ -3010,10 +4925,10 @@
   </r>
   <r>
     <n v="87"/>
-    <n v="31"/>
-    <n v="17"/>
+    <x v="25"/>
+    <x v="9"/>
     <x v="84"/>
-    <n v="44.054745307512668"/>
+    <x v="86"/>
     <n v="239.53123420518011"/>
     <n v="13.25996909028332"/>
     <n v="7.321903789178986"/>
@@ -3025,10 +4940,10 @@
   </r>
   <r>
     <n v="88"/>
-    <n v="33"/>
-    <n v="12"/>
+    <x v="21"/>
+    <x v="5"/>
     <x v="85"/>
-    <n v="44.651501069889612"/>
+    <x v="87"/>
     <n v="292.11653072670538"/>
     <n v="10.891636586892311"/>
     <n v="5.9999466499050751"/>
@@ -3040,10 +4955,10 @@
   </r>
   <r>
     <n v="89"/>
-    <n v="32"/>
-    <n v="7"/>
+    <x v="2"/>
+    <x v="4"/>
     <x v="86"/>
-    <n v="42.715219101999708"/>
+    <x v="88"/>
     <n v="249.14796736220379"/>
     <n v="10.37260549216194"/>
     <n v="6.4315168280707802"/>
@@ -3055,10 +4970,10 @@
   </r>
   <r>
     <n v="90"/>
-    <n v="25"/>
-    <n v="2"/>
+    <x v="4"/>
+    <x v="13"/>
     <x v="25"/>
-    <n v="32.517642122496767"/>
+    <x v="89"/>
     <n v="251.97542635208751"/>
     <n v="5.2499826650838486"/>
     <n v="6.4526586200578757"/>
@@ -3070,10 +4985,10 @@
   </r>
   <r>
     <n v="91"/>
-    <n v="31"/>
-    <n v="3"/>
+    <x v="25"/>
+    <x v="10"/>
     <x v="87"/>
-    <n v="38.350074018552483"/>
+    <x v="90"/>
     <n v="225.6464577888226"/>
     <n v="6.0486521690458082"/>
     <n v="6.4571352033009326"/>
@@ -3085,10 +5000,10 @@
   </r>
   <r>
     <n v="92"/>
-    <n v="40"/>
-    <n v="17"/>
+    <x v="8"/>
+    <x v="9"/>
     <x v="88"/>
-    <n v="48.441429951409042"/>
+    <x v="91"/>
     <n v="236.75178303148601"/>
     <n v="7.4187683752135758"/>
     <n v="4"/>
@@ -3100,10 +5015,10 @@
   </r>
   <r>
     <n v="93"/>
-    <n v="42"/>
-    <n v="5"/>
+    <x v="17"/>
+    <x v="11"/>
     <x v="89"/>
-    <n v="41.395714733152133"/>
+    <x v="92"/>
     <n v="275.1885998629686"/>
     <n v="3.810285264935636"/>
     <n v="7.0142438655486119"/>
@@ -3115,10 +5030,10 @@
   </r>
   <r>
     <n v="94"/>
-    <n v="25"/>
-    <n v="17"/>
+    <x v="4"/>
+    <x v="9"/>
     <x v="90"/>
-    <n v="44.906111389914301"/>
+    <x v="93"/>
     <n v="288.15308886563412"/>
     <n v="13.841296522573559"/>
     <n v="7.2498480783833363"/>
@@ -3130,10 +5045,10 @@
   </r>
   <r>
     <n v="95"/>
-    <n v="38"/>
-    <n v="17"/>
+    <x v="5"/>
+    <x v="9"/>
     <x v="91"/>
-    <n v="43.40691411642355"/>
+    <x v="94"/>
     <n v="263.94048088529672"/>
     <n v="10.435404631086371"/>
     <n v="4.6234767594474384"/>
@@ -3145,10 +5060,10 @@
   </r>
   <r>
     <n v="96"/>
-    <n v="33"/>
-    <n v="17"/>
+    <x v="21"/>
+    <x v="9"/>
     <x v="92"/>
-    <n v="48.194720209336843"/>
+    <x v="95"/>
     <n v="281.45605135880692"/>
     <n v="15.10238577644966"/>
     <n v="8.6870216317292108"/>
@@ -3160,10 +5075,10 @@
   </r>
   <r>
     <n v="97"/>
-    <n v="30"/>
-    <n v="2"/>
+    <x v="26"/>
+    <x v="13"/>
     <x v="93"/>
-    <n v="41.381394972657517"/>
+    <x v="96"/>
     <n v="266.55294809766002"/>
     <n v="13.93816738923125"/>
     <n v="7.8611161984086566"/>
@@ -3175,10 +5090,10 @@
   </r>
   <r>
     <n v="98"/>
-    <n v="35"/>
-    <n v="2"/>
+    <x v="24"/>
+    <x v="13"/>
     <x v="94"/>
-    <n v="31.388219575351371"/>
+    <x v="97"/>
     <n v="249.89265006618521"/>
     <n v="9.792393461513818"/>
     <n v="6.5061329734612041"/>
@@ -3190,10 +5105,10 @@
   </r>
   <r>
     <n v="99"/>
-    <n v="32"/>
-    <n v="5"/>
+    <x v="2"/>
+    <x v="11"/>
     <x v="95"/>
-    <n v="33.298860031852421"/>
+    <x v="98"/>
     <n v="201.16473610348081"/>
     <n v="14.838777611759291"/>
     <n v="6.359808917149838"/>
@@ -3205,10 +5120,10 @@
   </r>
   <r>
     <n v="100"/>
-    <n v="38"/>
-    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
     <x v="96"/>
-    <n v="37.092224566582018"/>
+    <x v="99"/>
     <n v="201.10114154409041"/>
     <n v="10.816720193389219"/>
     <n v="7.0561713918303957"/>
@@ -3222,9 +5137,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16A10E75-B614-452D-BFB6-4695FAB12709}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Training Hours/Week">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16A10E75-B614-452D-BFB6-4695FAB12709}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Training Hours/Week">
   <location ref="A3:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
+  <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3238,7 +5153,19 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3254,6 +5181,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -3335,10 +5263,428 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9767DC37-8F99-4412-B4E7-5710020C645C}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:AC9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="4"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="28">
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+    <i t="grand" i="2">
+      <x/>
+    </i>
+    <i t="grand" i="3">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Count of Athlete_ID" fld="0" subtotal="count" baseField="4" baseItem="1"/>
+    <dataField name="Average of Power Output (W)" fld="5" subtotal="average" baseField="4" baseItem="1" numFmtId="2"/>
+    <dataField name="Average of Average Heart Rate at Training Load (bpm)" fld="9" subtotal="average" baseField="4" baseItem="1" numFmtId="1"/>
+    <dataField name="Sum of Power Efficiency" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE7747B8-ADBD-4DF7-8160-419BA6742B3B}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:E7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="28">
+        <item x="16"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="24"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="19">
+        <item x="3"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Average of VO2max (ml/kg/min)" fld="4" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name="Average of Power Output (W)" fld="5" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name="Average of Injury Risk (%)" fld="6" subtotal="average" baseField="12" baseItem="0"/>
+    <dataField name="Average of Fatigue Level (%)" fld="8" subtotal="average" baseField="12" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Age" xr10:uid="{C4858402-E535-4E89-A8C8-953171380EDD}" sourceName="Age">
+  <pivotTables>
+    <pivotTable tabId="5" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="19130086">
+      <items count="27">
+        <i x="16" s="1"/>
+        <i x="13" s="1"/>
+        <i x="11" s="1"/>
+        <i x="10" s="1"/>
+        <i x="22" s="1"/>
+        <i x="15" s="1"/>
+        <i x="0" s="1"/>
+        <i x="4" s="1"/>
+        <i x="23" s="1"/>
+        <i x="20" s="1"/>
+        <i x="3" s="1"/>
+        <i x="14" s="1"/>
+        <i x="26" s="1"/>
+        <i x="25" s="1"/>
+        <i x="2" s="1"/>
+        <i x="21" s="1"/>
+        <i x="18" s="1"/>
+        <i x="24" s="1"/>
+        <i x="7" s="1"/>
+        <i x="1" s="1"/>
+        <i x="5" s="1"/>
+        <i x="12" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="17" s="1"/>
+        <i x="6" s="1"/>
+        <i x="19" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Training_Years" xr10:uid="{8B25DC57-991B-427D-BE5E-B250942E0C8B}" sourceName="Training Years">
+  <pivotTables>
+    <pivotTable tabId="5" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="19130086">
+      <items count="18">
+        <i x="3" s="1"/>
+        <i x="13" s="1"/>
+        <i x="10" s="1"/>
+        <i x="16" s="1"/>
+        <i x="11" s="1"/>
+        <i x="17" s="1"/>
+        <i x="4" s="1"/>
+        <i x="6" s="1"/>
+        <i x="1" s="1"/>
+        <i x="12" s="1"/>
+        <i x="7" s="1"/>
+        <i x="5" s="1"/>
+        <i x="0" s="1"/>
+        <i x="15" s="1"/>
+        <i x="2" s="1"/>
+        <i x="14" s="1"/>
+        <i x="9" s="1"/>
+        <i x="8" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Age" xr10:uid="{4EB52559-EA97-4EB0-BE9F-32BAD4023010}" cache="Slicer_Age" caption="Age" rowHeight="241300"/>
+  <slicer name="Training Years" xr10:uid="{CA4882D5-C487-4D41-88A6-CC8009192ADA}" cache="Slicer_Training_Years" caption="Training Years" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E92AE747-F36B-4A60-AB25-DE2B49A70251}" name="AthleteData" displayName="AthleteData" ref="A1:M101" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="A1:M101" xr:uid="{E92AE747-F36B-4A60-AB25-DE2B49A70251}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E92AE747-F36B-4A60-AB25-DE2B49A70251}" name="AthleteData" displayName="AthleteData" ref="A1:Q101" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="41" tableBorderDxfId="42">
+  <autoFilter ref="A1:Q101" xr:uid="{E92AE747-F36B-4A60-AB25-DE2B49A70251}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00ACF9B5-9B2F-4DD0-A2C5-370E8E4774EF}" name="Athlete_ID"/>
     <tableColumn id="2" xr3:uid="{760BADDD-8C56-415F-8BED-4BD12836117D}" name="Age"/>
     <tableColumn id="3" xr3:uid="{63CB98DA-D226-468E-81C0-134B90D3BA42}" name="Training Years"/>
@@ -3351,8 +5697,20 @@
     <tableColumn id="10" xr3:uid="{FD050546-8F60-4BD9-B94B-050219F1F055}" name="Average Heart Rate at Training Load (bpm)"/>
     <tableColumn id="11" xr3:uid="{1AA01617-1885-4DE8-A116-A347C34CE4EA}" name="Sprint Time (s)"/>
     <tableColumn id="12" xr3:uid="{865F6555-CD8C-481C-9D0D-D410162D774D}" name="Jump Height (m)"/>
-    <tableColumn id="13" xr3:uid="{AD5D06B9-9014-4737-9A16-59F89DE6D367}" name="Experience Level" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{AD5D06B9-9014-4737-9A16-59F89DE6D367}" name="Experience Level" dataDxfId="40">
       <calculatedColumnFormula array="1">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{F7B5AB4C-6BEF-47F3-920E-CE9031A00050}" name="Injury Risk Category" dataDxfId="39">
+      <calculatedColumnFormula array="1">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{661F77B1-6A0F-49A5-9F7A-6F1B33045B12}" name="Recovery Alert" dataDxfId="38">
+      <calculatedColumnFormula>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{E9B047C4-D98A-48A8-87DD-B00F3F8DDFEF}" name="Workload Alert" dataDxfId="37">
+      <calculatedColumnFormula>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{0DA35233-51DA-451B-82B6-8D02E755F679}" name="Recovery" dataDxfId="16">
+      <calculatedColumnFormula>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3646,7 +6004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3665,9 +6023,13 @@
     <col min="11" max="11" width="15.26953125" customWidth="1"/>
     <col min="12" max="12" width="17.08984375" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3707,8 +6069,20 @@
       <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3749,8 +6123,24 @@
         <f t="array" ref="M2">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N2" t="str" cm="1">
+        <f t="array" ref="N2">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3791,8 +6181,24 @@
         <f t="array" ref="M3">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O3" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3833,8 +6239,24 @@
         <f t="array" ref="M4">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3875,8 +6297,24 @@
         <f t="array" ref="M5">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O5" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3917,8 +6355,24 @@
         <f t="array" ref="M6">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O6" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3959,8 +6413,24 @@
         <f t="array" ref="M7">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4001,8 +6471,24 @@
         <f t="array" ref="M8">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O8" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4043,8 +6529,24 @@
         <f t="array" ref="M9">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O9" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4085,8 +6587,24 @@
         <f t="array" ref="M10">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>High</v>
+      </c>
+      <c r="O10" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4127,8 +6645,24 @@
         <f t="array" ref="M11">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O11" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4169,8 +6703,24 @@
         <f t="array" ref="M12">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O12" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4211,8 +6761,24 @@
         <f t="array" ref="M13">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O13" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4253,8 +6819,24 @@
         <f t="array" ref="M14">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>High</v>
+      </c>
+      <c r="O14" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4295,8 +6877,24 @@
         <f t="array" ref="M15">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O15" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4337,8 +6935,24 @@
         <f t="array" ref="M16">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O16" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4379,8 +6993,24 @@
         <f t="array" ref="M17">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" ref="N17">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O17" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4421,8 +7051,24 @@
         <f t="array" ref="M18">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" ref="N18">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O18" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P18" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4463,8 +7109,24 @@
         <f t="array" ref="M19">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N19" t="str" cm="1">
+        <f t="array" ref="N19">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O19" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P19" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4505,8 +7167,24 @@
         <f t="array" ref="M20">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N20" t="str" cm="1">
+        <f t="array" ref="N20">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O20" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P20" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4547,8 +7225,24 @@
         <f t="array" ref="M21">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N21" t="str" cm="1">
+        <f t="array" ref="N21">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O21" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4589,8 +7283,24 @@
         <f t="array" ref="M22">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N22" t="str" cm="1">
+        <f t="array" ref="N22">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>High</v>
+      </c>
+      <c r="O22" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P22" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4631,8 +7341,24 @@
         <f t="array" ref="M23">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N23" t="str" cm="1">
+        <f t="array" ref="N23">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O23" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P23" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4673,8 +7399,24 @@
         <f t="array" ref="M24">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N24" t="str" cm="1">
+        <f t="array" ref="N24">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O24" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P24" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4715,8 +7457,24 @@
         <f t="array" ref="M25">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N25" t="str" cm="1">
+        <f t="array" ref="N25">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O25" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P25" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4757,8 +7515,24 @@
         <f t="array" ref="M26">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N26" t="str" cm="1">
+        <f t="array" ref="N26">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O26" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P26" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4799,8 +7573,24 @@
         <f t="array" ref="M27">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N27" t="str" cm="1">
+        <f t="array" ref="N27">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O27" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P27" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4841,8 +7631,24 @@
         <f t="array" ref="M28">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N28" t="str" cm="1">
+        <f t="array" ref="N28">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O28" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P28" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4883,8 +7689,24 @@
         <f t="array" ref="M29">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N29" t="str" cm="1">
+        <f t="array" ref="N29">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O29" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P29" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4925,8 +7747,24 @@
         <f t="array" ref="M30">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N30" t="str" cm="1">
+        <f t="array" ref="N30">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O30" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P30" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4967,8 +7805,24 @@
         <f t="array" ref="M31">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N31" t="str" cm="1">
+        <f t="array" ref="N31">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O31" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P31" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5009,8 +7863,24 @@
         <f t="array" ref="M32">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N32" t="str" cm="1">
+        <f t="array" ref="N32">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>High</v>
+      </c>
+      <c r="O32" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P32" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5051,8 +7921,24 @@
         <f t="array" ref="M33">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N33" t="str" cm="1">
+        <f t="array" ref="N33">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O33" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P33" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5093,8 +7979,24 @@
         <f t="array" ref="M34">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N34" t="str" cm="1">
+        <f t="array" ref="N34">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O34" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P34" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5135,8 +8037,24 @@
         <f t="array" ref="M35">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N35" t="str" cm="1">
+        <f t="array" ref="N35">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O35" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P35" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5177,8 +8095,24 @@
         <f t="array" ref="M36">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N36" t="str" cm="1">
+        <f t="array" ref="N36">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O36" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P36" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5219,8 +8153,24 @@
         <f t="array" ref="M37">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N37" t="str" cm="1">
+        <f t="array" ref="N37">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O37" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P37" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5261,8 +8211,24 @@
         <f t="array" ref="M38">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N38" t="str" cm="1">
+        <f t="array" ref="N38">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O38" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P38" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5303,8 +8269,24 @@
         <f t="array" ref="M39">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N39" t="str" cm="1">
+        <f t="array" ref="N39">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O39" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P39" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5345,8 +8327,24 @@
         <f t="array" ref="M40">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N40" t="str" cm="1">
+        <f t="array" ref="N40">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O40" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P40" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5387,8 +8385,24 @@
         <f t="array" ref="M41">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N41" t="str" cm="1">
+        <f t="array" ref="N41">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O41" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P41" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5429,8 +8443,24 @@
         <f t="array" ref="M42">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N42" t="str" cm="1">
+        <f t="array" ref="N42">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O42" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P42" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q42" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5471,8 +8501,24 @@
         <f t="array" ref="M43">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N43" t="str" cm="1">
+        <f t="array" ref="N43">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O43" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P43" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5513,8 +8559,24 @@
         <f t="array" ref="M44">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N44" t="str" cm="1">
+        <f t="array" ref="N44">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O44" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P44" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q44" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5555,8 +8617,24 @@
         <f t="array" ref="M45">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N45" t="str" cm="1">
+        <f t="array" ref="N45">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O45" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P45" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5597,8 +8675,24 @@
         <f t="array" ref="M46">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N46" t="str" cm="1">
+        <f t="array" ref="N46">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O46" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P46" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5639,8 +8733,24 @@
         <f t="array" ref="M47">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N47" t="str" cm="1">
+        <f t="array" ref="N47">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O47" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P47" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q47" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5681,8 +8791,24 @@
         <f t="array" ref="M48">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N48" t="str" cm="1">
+        <f t="array" ref="N48">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O48" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P48" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q48" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5723,8 +8849,24 @@
         <f t="array" ref="M49">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N49" t="str" cm="1">
+        <f t="array" ref="N49">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>High</v>
+      </c>
+      <c r="O49" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P49" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q49" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5765,8 +8907,24 @@
         <f t="array" ref="M50">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N50" t="str" cm="1">
+        <f t="array" ref="N50">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O50" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P50" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q50" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5807,8 +8965,24 @@
         <f t="array" ref="M51">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N51" t="str" cm="1">
+        <f t="array" ref="N51">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O51" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P51" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q51" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5849,8 +9023,24 @@
         <f t="array" ref="M52">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N52" t="str" cm="1">
+        <f t="array" ref="N52">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O52" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P52" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q52" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5891,8 +9081,24 @@
         <f t="array" ref="M53">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N53" t="str" cm="1">
+        <f t="array" ref="N53">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O53" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P53" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q53" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5933,8 +9139,24 @@
         <f t="array" ref="M54">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N54" t="str" cm="1">
+        <f t="array" ref="N54">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O54" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P54" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q54" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5975,8 +9197,24 @@
         <f t="array" ref="M55">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N55" t="str" cm="1">
+        <f t="array" ref="N55">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O55" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P55" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q55" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6017,8 +9255,24 @@
         <f t="array" ref="M56">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N56" t="str" cm="1">
+        <f t="array" ref="N56">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O56" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P56" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q56" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6059,8 +9313,24 @@
         <f t="array" ref="M57">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N57" t="str" cm="1">
+        <f t="array" ref="N57">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O57" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P57" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q57" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6101,8 +9371,24 @@
         <f t="array" ref="M58">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N58" t="str" cm="1">
+        <f t="array" ref="N58">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O58" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P58" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q58" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6143,8 +9429,24 @@
         <f t="array" ref="M59">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N59" t="str" cm="1">
+        <f t="array" ref="N59">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O59" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P59" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q59" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6185,8 +9487,24 @@
         <f t="array" ref="M60">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N60" t="str" cm="1">
+        <f t="array" ref="N60">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O60" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P60" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q60" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6227,8 +9545,24 @@
         <f t="array" ref="M61">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N61" t="str" cm="1">
+        <f t="array" ref="N61">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O61" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P61" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q61" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6269,8 +9603,24 @@
         <f t="array" ref="M62">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N62" t="str" cm="1">
+        <f t="array" ref="N62">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O62" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P62" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q62" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6311,8 +9661,24 @@
         <f t="array" ref="M63">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N63" t="str" cm="1">
+        <f t="array" ref="N63">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O63" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P63" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q63" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6353,8 +9719,24 @@
         <f t="array" ref="M64">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N64" t="str" cm="1">
+        <f t="array" ref="N64">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O64" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P64" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q64" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6395,8 +9777,24 @@
         <f t="array" ref="M65">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N65" t="str" cm="1">
+        <f t="array" ref="N65">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O65" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P65" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q65" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6437,8 +9835,24 @@
         <f t="array" ref="M66">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N66" t="str" cm="1">
+        <f t="array" ref="N66">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O66" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P66" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q66" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6479,8 +9893,24 @@
         <f t="array" ref="M67">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N67" t="str" cm="1">
+        <f t="array" ref="N67">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O67" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P67" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q67" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6521,8 +9951,24 @@
         <f t="array" ref="M68">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N68" t="str" cm="1">
+        <f t="array" ref="N68">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O68" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P68" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q68" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6563,8 +10009,24 @@
         <f t="array" ref="M69">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N69" t="str" cm="1">
+        <f t="array" ref="N69">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O69" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P69" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q69" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6605,8 +10067,24 @@
         <f t="array" ref="M70">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N70" t="str" cm="1">
+        <f t="array" ref="N70">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O70" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P70" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q70" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6647,8 +10125,24 @@
         <f t="array" ref="M71">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N71" t="str" cm="1">
+        <f t="array" ref="N71">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O71" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P71" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q71" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6689,8 +10183,24 @@
         <f t="array" ref="M72">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N72" t="str" cm="1">
+        <f t="array" ref="N72">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O72" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P72" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q72" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6731,8 +10241,24 @@
         <f t="array" ref="M73">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N73" t="str" cm="1">
+        <f t="array" ref="N73">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O73" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P73" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q73" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6773,8 +10299,24 @@
         <f t="array" ref="M74">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N74" t="str" cm="1">
+        <f t="array" ref="N74">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O74" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P74" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q74" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6815,8 +10357,24 @@
         <f t="array" ref="M75">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N75" t="str" cm="1">
+        <f t="array" ref="N75">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O75" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P75" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q75" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6857,8 +10415,24 @@
         <f t="array" ref="M76">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N76" t="str" cm="1">
+        <f t="array" ref="N76">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O76" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P76" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q76" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6899,8 +10473,24 @@
         <f t="array" ref="M77">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N77" t="str" cm="1">
+        <f t="array" ref="N77">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O77" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P77" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q77" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6941,8 +10531,24 @@
         <f t="array" ref="M78">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N78" t="str" cm="1">
+        <f t="array" ref="N78">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O78" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P78" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q78" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6983,8 +10589,24 @@
         <f t="array" ref="M79">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N79" t="str" cm="1">
+        <f t="array" ref="N79">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O79" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P79" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q79" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7025,8 +10647,24 @@
         <f t="array" ref="M80">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N80" t="str" cm="1">
+        <f t="array" ref="N80">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O80" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P80" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q80" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7067,8 +10705,24 @@
         <f t="array" ref="M81">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N81" t="str" cm="1">
+        <f t="array" ref="N81">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O81" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P81" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q81" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7109,8 +10763,24 @@
         <f t="array" ref="M82">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N82" t="str" cm="1">
+        <f t="array" ref="N82">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O82" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P82" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q82" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7151,8 +10821,24 @@
         <f t="array" ref="M83">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N83" t="str" cm="1">
+        <f t="array" ref="N83">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O83" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P83" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q83" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7193,8 +10879,24 @@
         <f t="array" ref="M84">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N84" t="str" cm="1">
+        <f t="array" ref="N84">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O84" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P84" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q84" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7235,8 +10937,24 @@
         <f t="array" ref="M85">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N85" t="str" cm="1">
+        <f t="array" ref="N85">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O85" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P85" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q85" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7277,8 +10995,24 @@
         <f t="array" ref="M86">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N86" t="str" cm="1">
+        <f t="array" ref="N86">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O86" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P86" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q86" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7319,8 +11053,24 @@
         <f t="array" ref="M87">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N87" t="str" cm="1">
+        <f t="array" ref="N87">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>High</v>
+      </c>
+      <c r="O87" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P87" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q87" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7361,8 +11111,24 @@
         <f t="array" ref="M88">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N88" t="str" cm="1">
+        <f t="array" ref="N88">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O88" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P88" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q88" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7403,8 +11169,24 @@
         <f t="array" ref="M89">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N89" t="str" cm="1">
+        <f t="array" ref="N89">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O89" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P89" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q89" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7445,8 +11227,24 @@
         <f t="array" ref="M90">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N90" t="str" cm="1">
+        <f t="array" ref="N90">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O90" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P90" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q90" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7487,8 +11285,24 @@
         <f t="array" ref="M91">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N91" t="str" cm="1">
+        <f t="array" ref="N91">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O91" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P91" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q91" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7529,8 +11343,24 @@
         <f t="array" ref="M92">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N92" t="str" cm="1">
+        <f t="array" ref="N92">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O92" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P92" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q92" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7571,8 +11401,24 @@
         <f t="array" ref="M93">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N93" t="str" cm="1">
+        <f t="array" ref="N93">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O93" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P93" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q93" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7613,8 +11459,24 @@
         <f t="array" ref="M94">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N94" t="str" cm="1">
+        <f t="array" ref="N94">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O94" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P94" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q94" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7655,8 +11517,24 @@
         <f t="array" ref="M95">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N95" t="str" cm="1">
+        <f t="array" ref="N95">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O95" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P95" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q95" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7697,8 +11575,24 @@
         <f t="array" ref="M96">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N96" t="str" cm="1">
+        <f t="array" ref="N96">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O96" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>Alert</v>
+      </c>
+      <c r="P96" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q96" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7739,8 +11633,24 @@
         <f t="array" ref="M97">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Advanced</v>
       </c>
+      <c r="N97" t="str" cm="1">
+        <f t="array" ref="N97">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>High</v>
+      </c>
+      <c r="O97" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P97" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>High Workload</v>
+      </c>
+      <c r="Q97" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7781,8 +11691,24 @@
         <f t="array" ref="M98">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N98" t="str" cm="1">
+        <f t="array" ref="N98">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O98" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P98" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q98" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7823,8 +11749,24 @@
         <f t="array" ref="M99">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N99" t="str" cm="1">
+        <f t="array" ref="N99">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="O99" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P99" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q99" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7865,8 +11807,24 @@
         <f t="array" ref="M100">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Intermediate</v>
       </c>
+      <c r="N100" t="str" cm="1">
+        <f t="array" ref="N100">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O100" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P100" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q100" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7907,18 +11865,34 @@
         <f t="array" ref="M101">_xlfn.IFS(AthleteData[[#This Row],[Training Years]]&lt;5, "Beginner",AthleteData[[#This Row],[Training Years]]&lt;10, "Intermediate",AthleteData[[#This Row],[Training Years]]&gt;=10, "Advanced")</f>
         <v>Beginner</v>
       </c>
+      <c r="N101" t="str" cm="1">
+        <f t="array" ref="N101">_xlfn.IFS(AthleteData[[#This Row],[Injury Risk (%)]]&gt;15, "High", AthleteData[[#This Row],[Injury Risk (%)]]&gt;10, "Medium", AthleteData[[#This Row],[Injury Risk (%)]]&lt;=10,"Low")</f>
+        <v>Medium</v>
+      </c>
+      <c r="O101" t="str">
+        <f>IF(AND(AthleteData[[#This Row],[Injury Risk (%)]]&gt;10,AthleteData[[#This Row],[Recovery Hours per Night]]&lt;6),"Alert", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="P101" s="4" t="str">
+        <f>IF(AthleteData[[#This Row],[Training Hours per Week]] &gt; AVERAGEIFS(AthleteData[Training Hours per Week], AthleteData[Age], "&gt;" &amp; AthleteData[[#This Row],[Age]] - 5) * 1.25, "High Workload", "OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="Q101" s="4">
+        <f>IF(AthleteData[[#This Row],[Recovery Alert]]="Alert", 1, 2)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>AND(E2&lt;AVERAGE(VO2max_ml_kg_min)-STDEV(VO2max_ml_kg_min),E2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>AND(E2&gt;AVERAGE(VO2max_ml_kg_min)+STDEV(VO2max_ml_kg_min), E2&lt;&gt;"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(E2&lt;AVERAGE(VO2max_ml_kg_min)-STDEV(VO2max_ml_kg_min),E2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7927,6 +11901,42 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G101">
+    <cfRule type="cellIs" priority="9" operator="greaterThanOrEqual">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThanOrEqual">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="between">
+      <formula>10</formula>
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I101">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
+      <formula>40</formula>
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+      <formula>40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q101">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8050,8 +12060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C663CB5C-1FC5-4130-9411-B5D8E65543F2}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8063,7 +12073,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
@@ -8071,7 +12081,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
@@ -8085,64 +12095,674 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>44.10741842501784</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>241.04988735928035</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>163.80613352302416</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>45.399418902513681</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>256.76189036017541</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>161.44831284144956</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>49.263838389005933</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>301.23302202063076</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>160.61386446400076</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>45.64413542846583</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>259.43740553388994</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>161.74194386249192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CD3075-B35E-456B-AE22-1DCACF7DA920}">
+  <dimension ref="A3:AC9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="46.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="46.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="100" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>234.8026749082633</v>
+      </c>
+      <c r="H6" s="5">
+        <v>163.64586360482406</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.4348219364424046</v>
+      </c>
+      <c r="J6" s="4">
+        <v>19</v>
+      </c>
+      <c r="K6" s="6">
+        <v>260.99923248806408</v>
+      </c>
+      <c r="L6" s="5">
+        <v>164.55430953333402</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1.5860978252604989</v>
+      </c>
+      <c r="N6" s="4">
+        <v>16</v>
+      </c>
+      <c r="O6" s="6">
+        <v>257.15467605682824</v>
+      </c>
+      <c r="P6" s="5">
+        <v>158.73422452463075</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1.6200329628153103</v>
+      </c>
+      <c r="R6" s="4">
+        <v>4</v>
+      </c>
+      <c r="S6" s="6">
+        <v>263.72369184891477</v>
+      </c>
+      <c r="T6" s="5">
+        <v>160.21707617558016</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1.6460398488354813</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
+        <v>298.41068102872498</v>
+      </c>
+      <c r="X6" s="5">
+        <v>158.72213678525361</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>1.8800823065560532</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>259.43740553389006</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>161.74194386249195</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1.604020573379876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>228.14719296408106</v>
+      </c>
+      <c r="D7" s="5">
+        <v>174.53310211063118</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.3071858014616939</v>
+      </c>
+      <c r="F7" s="4">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6">
+        <v>224.11634553978703</v>
+      </c>
+      <c r="H7" s="5">
+        <v>171.73169365881287</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.3050377642291766</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
+      <c r="K7" s="6">
+        <v>213.34859318118592</v>
+      </c>
+      <c r="L7" s="5">
+        <v>173.73351463466514</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1.2280220867564051</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>208.87873963799811</v>
+      </c>
+      <c r="P7" s="5">
+        <v>157.20412890455921</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1.3287102641229689</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>222.15946031685405</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>172.11123695417683</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>1.2907899812259334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>201.16473610348081</v>
+      </c>
+      <c r="D8" s="5">
+        <v>164.1945583390293</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.2251607978878045</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>246.90891127684964</v>
+      </c>
+      <c r="H8" s="5">
+        <v>168.5996644115917</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.4644685808750277</v>
+      </c>
+      <c r="J8" s="4">
+        <v>19</v>
+      </c>
+      <c r="K8" s="6">
+        <v>241.11054925083036</v>
+      </c>
+      <c r="L8" s="5">
+        <v>166.17615779122445</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1.4509334699731702</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="O8" s="6">
+        <v>274.62453633703836</v>
+      </c>
+      <c r="P8" s="5">
+        <v>162.87821860481603</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1.6860728137219336</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="6">
+        <v>265.4493131917082</v>
+      </c>
+      <c r="T8" s="5">
+        <v>149.50261460863271</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1.7755496376207216</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>244.4258385001072</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>166.14537128201442</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>1.4711564734789984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>223.6501168206477</v>
+      </c>
+      <c r="D9" s="5">
+        <v>172.81001148203086</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2941965277509591</v>
+      </c>
+      <c r="F9" s="4">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6">
+        <v>233.70474231315541</v>
+      </c>
+      <c r="H9" s="5">
+        <v>169.90508009803636</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.3755017929911584</v>
+      </c>
+      <c r="J9" s="4">
+        <v>43</v>
+      </c>
+      <c r="K9" s="6">
+        <v>246.67043764988196</v>
+      </c>
+      <c r="L9" s="5">
+        <v>166.33828958930087</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1.4829444156178708</v>
+      </c>
+      <c r="N9" s="4">
+        <v>19</v>
+      </c>
+      <c r="O9" s="6">
+        <v>256.45276995901725</v>
+      </c>
+      <c r="P9" s="5">
+        <v>159.0899030793833</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1.6119990332199234</v>
+      </c>
+      <c r="R9" s="4">
+        <v>5</v>
+      </c>
+      <c r="S9" s="6">
+        <v>264.06881611747343</v>
+      </c>
+      <c r="T9" s="5">
+        <v>158.07418386219067</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1.670537273484765</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="6">
+        <v>298.41068102872498</v>
+      </c>
+      <c r="X9" s="5">
+        <v>158.72213678525361</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>1.8800823065560532</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>245.16410210848269</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>165.78739818385557</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>1.4787861127816218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D51F1A-5D5F-42C9-B9F3-EBD7D8F5BB4F}">
+  <dimension ref="A3:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45.644135428465837</v>
+      </c>
+      <c r="C4" s="4">
+        <v>259.43740553388994</v>
+      </c>
+      <c r="D4" s="4">
+        <v>11.884503656446242</v>
+      </c>
+      <c r="E4" s="4">
+        <v>47.832630895240627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>38.206076792517422</v>
+      </c>
+      <c r="C5" s="4">
+        <v>222.15946031685408</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.1396952682905095</v>
+      </c>
+      <c r="E5" s="4">
+        <v>42.682177939661997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>41.348728894777366</v>
+      </c>
+      <c r="C6" s="4">
+        <v>244.42583850010718</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10.95453951152923</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44.460330829474124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>42.367136613361524</v>
+      </c>
+      <c r="C7" s="4">
+        <v>245.16410210848269</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10.891413391584699</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45.432158634643017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8342,6 +12962,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="bb64d4c3-b0ad-408e-876f-a012917063a4">
@@ -8350,15 +12979,6 @@
     <TaxCatchAll xmlns="32c8661e-6ddf-441a-9a2e-4b375700f4a2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8381,6 +13001,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB2DB4F-CD57-412E-A205-B1A6F657E810}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8996647-9211-444F-849E-81A51F2F8B0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8389,12 +13017,4 @@
     <ds:schemaRef ds:uri="32c8661e-6ddf-441a-9a2e-4b375700f4a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB2DB4F-CD57-412E-A205-B1A6F657E810}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>